--- a/medicine/Œil et vue/Lettres_de_Sloan/Lettres_de_Sloan.xlsx
+++ b/medicine/Œil et vue/Lettres_de_Sloan/Lettres_de_Sloan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lettres de Sloan, conçues par Louise Sloan en 1959, sont un ensemble d'optotypes utilisés pour tester l'acuité visuelle, généralement dans les tableaux de Snellen et les tableaux logMAR.
-Cet ensemble d'optotypes se compose de dix "lettres" spécialement formées, C, D, H, K, N, O, R, S, V et Z[1]. Ces lettres, contrairement à celles utilisées dans les anciens tableaux de Snellen, sont conçues pour donner des résultats de test d'acuité comparables aux tests effectués à l'aide d'anneaux de Landolt.
-Des polices informatiques pour les systèmes d'exploitation macOS et Microsoft Windows sont disponibles à des fins de recherche. Les polices sont basées sur la conception de Louise Sloan, qui a été désignée comme la norme américaine pour les tests d'acuité par la National Academy of Sciences, National Research Council, Committee on Vision (1980, Adv Ophthalmol, 41, 103-148)[2].
+Cet ensemble d'optotypes se compose de dix "lettres" spécialement formées, C, D, H, K, N, O, R, S, V et Z. Ces lettres, contrairement à celles utilisées dans les anciens tableaux de Snellen, sont conçues pour donner des résultats de test d'acuité comparables aux tests effectués à l'aide d'anneaux de Landolt.
+Des polices informatiques pour les systèmes d'exploitation macOS et Microsoft Windows sont disponibles à des fins de recherche. Les polices sont basées sur la conception de Louise Sloan, qui a été désignée comme la norme américaine pour les tests d'acuité par la National Academy of Sciences, National Research Council, Committee on Vision (1980, Adv Ophthalmol, 41, 103-148).
 </t>
         </is>
       </c>
